--- a/src/test/resources/configurations/TestData.xlsx
+++ b/src/test/resources/configurations/TestData.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Workspaces\ohrmtest\src\test\resources\configurations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SeleniumQA\src\test\resources\configurations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C01DD74-5325-41EC-A8FA-8D7D2B4C6865}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD366CAF-0887-48C5-A025-AF65D1084E56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FormData" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="AllElements" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -60,8 +61,43 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>DELL</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{BDDA8B46-364B-469A-8A1F-F334251C379E}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>DELL:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This Test Field 
+cells names are for reference</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
   <si>
     <t>Test Field Name</t>
   </si>
@@ -306,6 +342,12 @@
       </rPr>
       <t>ConfigHub</t>
     </r>
+  </si>
+  <si>
+    <t>AppURL</t>
+  </si>
+  <si>
+    <t>https://the-internet.herokuapp.com/</t>
   </si>
 </sst>
 </file>
@@ -877,7 +919,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A3" sqref="A3:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -941,10 +983,49 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69B1644A-918D-41B9-9E73-33C5849437CA}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.28515625" customWidth="1"/>
+    <col min="2" max="2" width="36.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F55FA7C-CE92-465F-A654-3FA8C3F2A8C1}">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>

--- a/src/test/resources/configurations/TestData.xlsx
+++ b/src/test/resources/configurations/TestData.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SeleniumQA\src\test\resources\configurations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD366CAF-0887-48C5-A025-AF65D1084E56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4186E64A-B1CB-4C4F-9A20-C14BFD2EDC9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="FormData" sheetId="1" r:id="rId1"/>
-    <sheet name="AllElements" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
+    <sheet name="PlayGround" sheetId="4" r:id="rId1"/>
+    <sheet name="FormData" sheetId="1" r:id="rId2"/>
+    <sheet name="AllElements" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,6 +28,41 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>DELL</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{DE517498-0342-461D-AC09-248DC5987514}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>DELL:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This Test Field 
+cells names are for reference</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>DELL</author>
@@ -61,7 +97,7 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>DELL</author>
@@ -97,7 +133,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="42">
   <si>
     <t>Test Field Name</t>
   </si>
@@ -348,6 +384,9 @@
   </si>
   <si>
     <t>https://the-internet.herokuapp.com/</t>
+  </si>
+  <si>
+    <t>https://play1.automationcamp.ir/</t>
   </si>
 </sst>
 </file>
@@ -915,6 +954,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15975E7C-DEF3-4901-A117-5121AA12B7EF}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.28515625" customWidth="1"/>
+    <col min="2" max="2" width="36.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -982,11 +1060,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69B1644A-918D-41B9-9E73-33C5849437CA}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
@@ -1021,7 +1099,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F55FA7C-CE92-465F-A654-3FA8C3F2A8C1}">
   <dimension ref="A1:C15"/>
   <sheetViews>
